--- a/data/extracted_data/raw/Lewis_etal_2022_Fig3.xlsx
+++ b/data/extracted_data/raw/Lewis_etal_2022_Fig3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D9098-951C-1E42-BA85-FD0B8282E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A7CB8-473C-F746-AD98-52586C0C3428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28960" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36660" yWindow="3900" windowWidth="28960" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>study</t>
   </si>
@@ -102,9 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -423,9 +426,10 @@
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +442,9 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -453,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>157.692307692307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -475,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>183.333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -489,13 +494,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>426.923076923076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -503,13 +508,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589.31623931623903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -517,13 +522,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>275.213675213675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -531,13 +536,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>211.111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -545,27 +550,27 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>170.51282051282001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -573,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65.811965811965905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -587,13 +592,13 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228.20512820512801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -601,13 +606,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>604.27350427350405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -615,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>450.42735042735001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -629,13 +634,13 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147.008547008547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -643,10 +648,10 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>580</v>
+        <v>166.239316239316</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>290</v>
+        <v>97.863247863247906</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -668,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -682,13 +687,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>190</v>
+        <v>119.230769230769</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,10 +704,10 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>236.75213675213601</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -713,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>418.37606837606802</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -727,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>150</v>
+        <v>245.29914529914501</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -741,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>230</v>
+        <v>264.52991452991398</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -755,10 +760,10 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>420</v>
+        <v>258.11965811965803</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -769,52 +774,10 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>21</v>
-      </c>
-      <c r="D28">
-        <v>140</v>
+        <v>80.769230769230802</v>
       </c>
     </row>
   </sheetData>

--- a/data/extracted_data/raw/Lewis_etal_2022_Fig3.xlsx
+++ b/data/extracted_data/raw/Lewis_etal_2022_Fig3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A7CB8-473C-F746-AD98-52586C0C3428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A1743B-B3AC-D040-AB83-FCCB3E07E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36660" yWindow="3900" windowWidth="28960" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -417,7 +417,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -491,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>21</v>
